--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Agtr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>6.007243</v>
       </c>
       <c r="O2">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P2">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q2">
-        <v>391.3426241741756</v>
+        <v>395.5636762104414</v>
       </c>
       <c r="R2">
-        <v>3522.083617567581</v>
+        <v>3560.073085893973</v>
       </c>
       <c r="S2">
-        <v>0.2531159644647082</v>
+        <v>0.2419615758534044</v>
       </c>
       <c r="T2">
-        <v>0.2531159644647083</v>
+        <v>0.2419615758534043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N3">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O3">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P3">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q3">
-        <v>87.290043884516</v>
+        <v>158.4284660515311</v>
       </c>
       <c r="R3">
-        <v>785.610394960644</v>
+        <v>1425.85619446378</v>
       </c>
       <c r="S3">
-        <v>0.05645820894828551</v>
+        <v>0.09690880030519389</v>
       </c>
       <c r="T3">
-        <v>0.05645820894828552</v>
+        <v>0.09690880030519387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>239.481758</v>
       </c>
       <c r="I4">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J4">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -688,10 +688,10 @@
         <v>6.007243</v>
       </c>
       <c r="O4">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P4">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q4">
         <v>159.8472349303549</v>
@@ -700,10 +700,10 @@
         <v>1438.625114373194</v>
       </c>
       <c r="S4">
-        <v>0.1033873760155654</v>
+        <v>0.09777664428161943</v>
       </c>
       <c r="T4">
-        <v>0.1033873760155654</v>
+        <v>0.0977766442816194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>239.481758</v>
       </c>
       <c r="I5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J5">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N5">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O5">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P5">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q5">
-        <v>35.65436344005067</v>
+        <v>64.02092445698223</v>
       </c>
       <c r="R5">
-        <v>320.889270960456</v>
+        <v>576.18832011284</v>
       </c>
       <c r="S5">
-        <v>0.02306083731243909</v>
+        <v>0.03916083478039605</v>
       </c>
       <c r="T5">
-        <v>0.0230608373124391</v>
+        <v>0.03916083478039604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H6">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I6">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J6">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,22 +812,22 @@
         <v>6.007243</v>
       </c>
       <c r="O6">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P6">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q6">
-        <v>325.4156726454933</v>
+        <v>298.008145750777</v>
       </c>
       <c r="R6">
-        <v>2928.741053809439</v>
+        <v>2682.073311756993</v>
       </c>
       <c r="S6">
-        <v>0.2104751610111761</v>
+        <v>0.1822880231415588</v>
       </c>
       <c r="T6">
-        <v>0.2104751610111762</v>
+        <v>0.1822880231415588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H7">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I7">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J7">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N7">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O7">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P7">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q7">
-        <v>72.58485682687068</v>
+        <v>119.35619027122</v>
       </c>
       <c r="R7">
-        <v>653.2637114418361</v>
+        <v>1074.20571244098</v>
       </c>
       <c r="S7">
-        <v>0.04694706098022458</v>
+        <v>0.07300875591650406</v>
       </c>
       <c r="T7">
-        <v>0.04694706098022459</v>
+        <v>0.07300875591650406</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H8">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I8">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J8">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.007243</v>
       </c>
       <c r="O8">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P8">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q8">
-        <v>67.55861350842757</v>
+        <v>70.939238232093</v>
       </c>
       <c r="R8">
-        <v>608.0275215758481</v>
+        <v>638.453144088837</v>
       </c>
       <c r="S8">
-        <v>0.04369614388969117</v>
+        <v>0.04339268467953483</v>
       </c>
       <c r="T8">
-        <v>0.04369614388969117</v>
+        <v>0.04339268467953482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H9">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I9">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J9">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N9">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O9">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P9">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q9">
-        <v>15.06913372999467</v>
+        <v>28.41209992698</v>
       </c>
       <c r="R9">
-        <v>135.622203569952</v>
+        <v>255.70889934282</v>
       </c>
       <c r="S9">
-        <v>0.009746544542047273</v>
+        <v>0.0173793421516771</v>
       </c>
       <c r="T9">
-        <v>0.009746544542047273</v>
+        <v>0.0173793421516771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H10">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I10">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J10">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1060,22 +1060,22 @@
         <v>6.007243</v>
       </c>
       <c r="O10">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="P10">
-        <v>0.8176262304899502</v>
+        <v>0.7140239834365498</v>
       </c>
       <c r="Q10">
-        <v>319.9678715041258</v>
+        <v>242.9425492124864</v>
       </c>
       <c r="R10">
-        <v>2879.710843537132</v>
+        <v>2186.482942912378</v>
       </c>
       <c r="S10">
-        <v>0.2069515851088092</v>
+        <v>0.1486050554804325</v>
       </c>
       <c r="T10">
-        <v>0.2069515851088092</v>
+        <v>0.1486050554804324</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>159.7910413333333</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H11">
-        <v>479.373124</v>
+        <v>363.974446</v>
       </c>
       <c r="I11">
-        <v>0.2531127028358625</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J11">
-        <v>0.2531127028358626</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.446644</v>
+        <v>0.8019933333333333</v>
       </c>
       <c r="N11">
-        <v>1.339932</v>
+        <v>2.40598</v>
       </c>
       <c r="O11">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="P11">
-        <v>0.1823737695100498</v>
+        <v>0.2859760165634502</v>
       </c>
       <c r="Q11">
-        <v>71.36970986528534</v>
+        <v>97.30169306523111</v>
       </c>
       <c r="R11">
-        <v>642.3273887875681</v>
+        <v>875.71523758708</v>
       </c>
       <c r="S11">
-        <v>0.04616111772705331</v>
+        <v>0.05951828340967909</v>
       </c>
       <c r="T11">
-        <v>0.04616111772705333</v>
+        <v>0.05951828340967909</v>
       </c>
     </row>
   </sheetData>
